--- a/anvatthailan.xlsx
+++ b/anvatthailan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tramn\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,9 +38,6 @@
     <t>Cá sợi taro 78gr</t>
   </si>
   <si>
-    <t>Cá sợi taro 45gr</t>
-  </si>
-  <si>
     <t>Cá sợi taro 32gr</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dầu thảo dược </t>
+  </si>
+  <si>
+    <t>Cá sợi taro 45gr 1234444455554</t>
   </si>
 </sst>
 </file>
@@ -349,7 +349,15 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -398,8 +406,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -741,50 +749,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B97" sqref="A97:B97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>55000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>16000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>140000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -792,761 +801,761 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B6" s="3">
         <v>30000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>45000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>12000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>18000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>22000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>95000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>95000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>85000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>15000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>18000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>50000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>50000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>15000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>65000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>30000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B25" s="3">
         <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="B26" s="3">
         <v>65000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>35000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>110000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B30" s="3">
         <v>45000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B31" s="3">
         <v>13000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>13000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="B33" s="3">
         <v>12000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>130000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B35" s="3">
         <v>250000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B36" s="3">
         <v>130000</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>50000</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="B38" s="3">
         <v>85000</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B39" s="3">
         <v>145000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B40" s="3">
         <v>200000</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
+      <c r="A41" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="B41" s="3">
         <v>45000</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
+      <c r="A42" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>210000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
+      <c r="A43" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B43" s="3">
         <v>70000</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
+      <c r="A44" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B44" s="3">
         <v>130000</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
+      <c r="A45" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B45" s="3">
         <v>90000</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
+      <c r="A46" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B46" s="3">
         <v>55000</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
+      <c r="A47" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B47" s="3">
         <v>80000</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
+      <c r="A48" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B48" s="3">
         <v>50000</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
+      <c r="A49" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B49" s="3">
         <v>100000</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
+      <c r="A50" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B50" s="3">
         <v>30000</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
+      <c r="A51" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B51" s="3">
         <v>45000</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
+      <c r="A52" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B52" s="3">
         <v>170000</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="B54" s="3">
         <v>70000</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
+      <c r="A55" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B55" s="3">
         <v>70000</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
+      <c r="A56" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>90000</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
+      <c r="A57" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B57" s="3">
         <v>25000</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
+      <c r="A58" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B58" s="3">
         <v>40000</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>58</v>
+      <c r="A59" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B59" s="3">
         <v>65000</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B60">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="B61" s="3">
         <v>120000</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="B65" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B64">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B69" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="1">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" s="1">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" s="1">
         <v>60000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B65">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B78" s="1">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B79" s="1">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B80" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="1">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="1">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" s="1">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B85" s="1">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B87" s="1">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B88" s="1">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B89" s="1">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="1">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="1">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" s="1">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B95" s="1">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B96" s="1">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B98" s="1">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B99" s="1">
         <v>70000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B66" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B70">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B100" s="1">
         <v>110000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B77">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B78">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B79">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B80">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B81">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B82">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B83">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B101" s="1">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B102" s="1">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B103" s="1">
         <v>130000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B86">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B87">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B88">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B90">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B93">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B94">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B96">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B98">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B99">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B100">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B101">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B102">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B103">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>40000</v>
       </c>
     </row>

--- a/anvatthailan.xlsx
+++ b/anvatthailan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tramn\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,6 +38,9 @@
     <t>Cá sợi taro 78gr</t>
   </si>
   <si>
+    <t>Cá sợi taro 45gr</t>
+  </si>
+  <si>
     <t>Cá sợi taro 32gr</t>
   </si>
   <si>
@@ -336,9 +339,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dầu thảo dược </t>
-  </si>
-  <si>
-    <t>Cá sợi taro 45gr 1234444455554</t>
   </si>
 </sst>
 </file>
@@ -349,15 +349,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,8 +398,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -749,51 +741,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B97" sqref="A97:B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1">
         <v>55000</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2">
         <v>16000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3">
         <v>50000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4">
         <v>140000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
@@ -801,761 +792,761 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>105</v>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>30000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
+      <c r="A8" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>45000</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
+      <c r="A9" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>12000</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
+      <c r="A10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B10" s="3">
         <v>18000</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
+      <c r="A11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="3">
         <v>22000</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
+      <c r="A12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>95000</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
+      <c r="A13" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B13" s="3">
         <v>95000</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
+      <c r="A14" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="B14" s="3">
         <v>85000</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
+      <c r="A15" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B15" s="3">
         <v>15000</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
+      <c r="A16" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>15000</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
+      <c r="A17" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B17" s="3">
         <v>18000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
+      <c r="A18" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B18" s="3">
         <v>50000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
+      <c r="A19" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="B19" s="3">
         <v>50000</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
+      <c r="A20" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B20" s="3">
         <v>15000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
+      <c r="A21" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B21" s="3">
         <v>15000</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
+      <c r="A22" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>40000</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
+      <c r="A23" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B23" s="3">
         <v>65000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
+      <c r="A24" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B24" s="3">
         <v>30000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
+      <c r="A25" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B25" s="3">
         <v>20000</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
+      <c r="A26" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B26" s="3">
         <v>65000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
+      <c r="A27" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B27" s="3">
         <v>20000</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
+      <c r="A28" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B28" s="3">
         <v>35000</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
+      <c r="A29" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B29" s="3">
         <v>110000</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
+      <c r="A30" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="3">
         <v>45000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
+      <c r="A31" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="B31" s="3">
         <v>13000</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
+      <c r="A32" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B32" s="3">
         <v>13000</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
+      <c r="A33" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B33" s="3">
         <v>12000</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
+      <c r="A34" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B34" s="3">
         <v>130000</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
+      <c r="A35" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B35" s="3">
         <v>250000</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>34</v>
+      <c r="A36" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B36" s="3">
         <v>130000</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
+      <c r="A37" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="B37" s="3">
         <v>50000</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>36</v>
+      <c r="A38" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B38" s="3">
         <v>85000</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>37</v>
+      <c r="A39" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B39" s="3">
         <v>145000</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>38</v>
+      <c r="A40" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="B40" s="3">
         <v>200000</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>39</v>
+      <c r="A41" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="B41" s="3">
         <v>45000</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>40</v>
+      <c r="A42" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B42" s="3">
         <v>210000</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>41</v>
+      <c r="A43" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B43" s="3">
         <v>70000</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>42</v>
+      <c r="A44" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B44" s="3">
         <v>130000</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>43</v>
+      <c r="A45" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B45" s="3">
         <v>90000</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>44</v>
+      <c r="A46" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="B46" s="3">
         <v>55000</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>45</v>
+      <c r="A47" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="B47" s="3">
         <v>80000</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>46</v>
+      <c r="A48" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B48" s="3">
         <v>50000</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>47</v>
+      <c r="A49" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="B49" s="3">
         <v>100000</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>48</v>
+      <c r="A50" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="B50" s="3">
         <v>30000</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>49</v>
+      <c r="A51" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B51" s="3">
         <v>45000</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>50</v>
+      <c r="A52" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="B52" s="3">
         <v>170000</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>51</v>
+      <c r="A53" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>52</v>
+      <c r="A54" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B54" s="3">
         <v>70000</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>53</v>
+      <c r="A55" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B55" s="3">
         <v>70000</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>54</v>
+      <c r="A56" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B56" s="3">
         <v>90000</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>55</v>
+      <c r="A57" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B57" s="3">
         <v>25000</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>56</v>
+      <c r="A58" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="B58" s="3">
         <v>40000</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>57</v>
+      <c r="A59" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B59" s="3">
         <v>65000</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" s="1">
+      <c r="A60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
         <v>40000</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>59</v>
+      <c r="A61" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="B61" s="3">
         <v>120000</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>190000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B65" s="1">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" s="1">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="1">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="1">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" s="1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" s="1">
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="1">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B80" s="1">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="1">
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" s="1">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="1">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B84" s="1">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" s="1">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" s="1">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" s="1">
-        <v>190000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" s="1">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" s="1">
-        <v>210000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B93" s="1">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B94" s="1">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B95" s="1">
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B96" s="1">
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="1">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B99" s="1">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B100" s="1">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B101" s="1">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B102" s="1">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B103" s="1">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B104" s="1">
+      <c r="B104">
         <v>40000</v>
       </c>
     </row>
